--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Podxl2-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Podxl2-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Sell</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.855746333333333</v>
+        <v>1.860366666666667</v>
       </c>
       <c r="H2">
-        <v>8.567238999999999</v>
+        <v>5.581099999999999</v>
       </c>
       <c r="I2">
-        <v>0.5141941412552192</v>
+        <v>0.3975617032346596</v>
       </c>
       <c r="J2">
-        <v>0.5141941412552192</v>
+        <v>0.3975617032346596</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N2">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O2">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P2">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q2">
-        <v>0.5872518683248887</v>
+        <v>0.6568564022999999</v>
       </c>
       <c r="R2">
-        <v>5.285266814923999</v>
+        <v>5.911707620699999</v>
       </c>
       <c r="S2">
-        <v>0.002152628150496319</v>
+        <v>0.005529292631498016</v>
       </c>
       <c r="T2">
-        <v>0.002152628150496319</v>
+        <v>0.005529292631498018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.855746333333333</v>
+        <v>1.860366666666667</v>
       </c>
       <c r="H3">
-        <v>8.567238999999999</v>
+        <v>5.581099999999999</v>
       </c>
       <c r="I3">
-        <v>0.5141941412552192</v>
+        <v>0.3975617032346596</v>
       </c>
       <c r="J3">
-        <v>0.5141941412552192</v>
+        <v>0.3975617032346596</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N3">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O3">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P3">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q3">
-        <v>8.495704458180887</v>
+        <v>45.31684836816666</v>
       </c>
       <c r="R3">
-        <v>76.46134012362799</v>
+        <v>407.8516353135</v>
       </c>
       <c r="S3">
-        <v>0.03114182101649718</v>
+        <v>0.3814686358958199</v>
       </c>
       <c r="T3">
-        <v>0.03114182101649718</v>
+        <v>0.38146863589582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.855746333333333</v>
+        <v>1.860366666666667</v>
       </c>
       <c r="H4">
-        <v>8.567238999999999</v>
+        <v>5.581099999999999</v>
       </c>
       <c r="I4">
-        <v>0.5141941412552192</v>
+        <v>0.3975617032346596</v>
       </c>
       <c r="J4">
-        <v>0.5141941412552192</v>
+        <v>0.3975617032346596</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N4">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O4">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P4">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q4">
-        <v>131.1927666608657</v>
+        <v>1.254931419155555</v>
       </c>
       <c r="R4">
-        <v>1180.734899947791</v>
+        <v>11.2943827724</v>
       </c>
       <c r="S4">
-        <v>0.4808996920882258</v>
+        <v>0.01056377470734164</v>
       </c>
       <c r="T4">
-        <v>0.4808996920882258</v>
+        <v>0.01056377470734164</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -732,10 +732,10 @@
         <v>6.469307000000001</v>
       </c>
       <c r="I5">
-        <v>0.3882790893753962</v>
+        <v>0.4608318628349082</v>
       </c>
       <c r="J5">
-        <v>0.3882790893753961</v>
+        <v>0.4608318628349083</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N5">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O5">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P5">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q5">
-        <v>0.4434465552457778</v>
+        <v>0.761392148751</v>
       </c>
       <c r="R5">
-        <v>3.991018997212</v>
+        <v>6.852529338759001</v>
       </c>
       <c r="S5">
-        <v>0.00162549595761282</v>
+        <v>0.006409254721470417</v>
       </c>
       <c r="T5">
-        <v>0.001625495957612819</v>
+        <v>0.006409254721470419</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>6.469307000000001</v>
       </c>
       <c r="I6">
-        <v>0.3882790893753962</v>
+        <v>0.4608318628349082</v>
       </c>
       <c r="J6">
-        <v>0.3882790893753961</v>
+        <v>0.4608318628349083</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N6">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O6">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P6">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q6">
-        <v>6.415289724173778</v>
+        <v>52.52882126572167</v>
       </c>
       <c r="R6">
-        <v>57.737607517564</v>
+        <v>472.7593913914951</v>
       </c>
       <c r="S6">
-        <v>0.02351586090860455</v>
+        <v>0.4421776561038647</v>
       </c>
       <c r="T6">
-        <v>0.02351586090860455</v>
+        <v>0.4421776561038648</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>6.469307000000001</v>
       </c>
       <c r="I7">
-        <v>0.3882790893753962</v>
+        <v>0.4608318628349082</v>
       </c>
       <c r="J7">
-        <v>0.3882790893753961</v>
+        <v>0.4608318628349083</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N7">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O7">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P7">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q7">
-        <v>99.06648848112034</v>
+        <v>1.454648118554222</v>
       </c>
       <c r="R7">
-        <v>891.5983963300831</v>
+        <v>13.091833066988</v>
       </c>
       <c r="S7">
-        <v>0.3631377325091789</v>
+        <v>0.01224495200957306</v>
       </c>
       <c r="T7">
-        <v>0.3631377325091787</v>
+        <v>0.01224495200957306</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5108336666666667</v>
+        <v>0.1087846666666667</v>
       </c>
       <c r="H8">
-        <v>1.532501</v>
+        <v>0.326354</v>
       </c>
       <c r="I8">
-        <v>0.09197864512333145</v>
+        <v>0.0232473620070316</v>
       </c>
       <c r="J8">
-        <v>0.09197864512333143</v>
+        <v>0.02324736200703161</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N8">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O8">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P8">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q8">
-        <v>0.1050471541017778</v>
+        <v>0.03840958132199999</v>
       </c>
       <c r="R8">
-        <v>0.9454243869160001</v>
+        <v>0.345686231898</v>
       </c>
       <c r="S8">
-        <v>0.000385060437004706</v>
+        <v>0.0003233245717618217</v>
       </c>
       <c r="T8">
-        <v>0.0003850604370047059</v>
+        <v>0.0003233245717618219</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.5108336666666667</v>
+        <v>0.1087846666666667</v>
       </c>
       <c r="H9">
-        <v>1.532501</v>
+        <v>0.326354</v>
       </c>
       <c r="I9">
-        <v>0.09197864512333145</v>
+        <v>0.0232473620070316</v>
       </c>
       <c r="J9">
-        <v>0.09197864512333143</v>
+        <v>0.02324736200703161</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N9">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O9">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P9">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q9">
-        <v>1.519704957205778</v>
+        <v>2.649896029876667</v>
       </c>
       <c r="R9">
-        <v>13.677344614852</v>
+        <v>23.84906426889</v>
       </c>
       <c r="S9">
-        <v>0.005570624544220484</v>
+        <v>0.02230632226606662</v>
       </c>
       <c r="T9">
-        <v>0.005570624544220483</v>
+        <v>0.02230632226606662</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.5108336666666667</v>
+        <v>0.1087846666666667</v>
       </c>
       <c r="H10">
-        <v>1.532501</v>
+        <v>0.326354</v>
       </c>
       <c r="I10">
-        <v>0.09197864512333145</v>
+        <v>0.0232473620070316</v>
       </c>
       <c r="J10">
-        <v>0.09197864512333143</v>
+        <v>0.02324736200703161</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N10">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O10">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P10">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q10">
-        <v>23.46765931247434</v>
+        <v>0.07338192979288886</v>
       </c>
       <c r="R10">
-        <v>211.208933812269</v>
+        <v>0.6604373681359998</v>
       </c>
       <c r="S10">
-        <v>0.08602296014210628</v>
+        <v>0.0006177151692031628</v>
       </c>
       <c r="T10">
-        <v>0.08602296014210625</v>
+        <v>0.000617715169203163</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.03081333333333333</v>
+        <v>0.446837</v>
       </c>
       <c r="H11">
-        <v>0.09243999999999999</v>
+        <v>1.340511</v>
       </c>
       <c r="I11">
-        <v>0.005548124246053189</v>
+        <v>0.09548939032893099</v>
       </c>
       <c r="J11">
-        <v>0.005548124246053188</v>
+        <v>0.09548939032893101</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N11">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O11">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P11">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q11">
-        <v>0.006336412782222221</v>
+        <v>0.157768761123</v>
       </c>
       <c r="R11">
-        <v>0.05702771504</v>
+        <v>1.419918850107</v>
       </c>
       <c r="S11">
-        <v>2.322672989884836E-05</v>
+        <v>0.001328067512630492</v>
       </c>
       <c r="T11">
-        <v>2.322672989884836E-05</v>
+        <v>0.001328067512630492</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.03081333333333333</v>
+        <v>0.446837</v>
       </c>
       <c r="H12">
-        <v>0.09243999999999999</v>
+        <v>1.340511</v>
       </c>
       <c r="I12">
-        <v>0.005548124246053189</v>
+        <v>0.09548939032893099</v>
       </c>
       <c r="J12">
-        <v>0.005548124246053188</v>
+        <v>0.09548939032893101</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N12">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O12">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P12">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q12">
-        <v>0.09166814654222222</v>
+        <v>10.884544932515</v>
       </c>
       <c r="R12">
-        <v>0.82501331888</v>
+        <v>97.960904392635</v>
       </c>
       <c r="S12">
-        <v>0.0003360183992491629</v>
+        <v>0.09162403514958367</v>
       </c>
       <c r="T12">
-        <v>0.0003360183992491629</v>
+        <v>0.0916240351495837</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,247 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.446837</v>
+      </c>
+      <c r="H13">
+        <v>1.340511</v>
+      </c>
+      <c r="I13">
+        <v>0.09548939032893099</v>
+      </c>
+      <c r="J13">
+        <v>0.09548939032893101</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6745613333333332</v>
+      </c>
+      <c r="N13">
+        <v>2.023684</v>
+      </c>
+      <c r="O13">
+        <v>0.02657140922124081</v>
+      </c>
+      <c r="P13">
+        <v>0.02657140922124081</v>
+      </c>
+      <c r="Q13">
+        <v>0.3014189625026666</v>
+      </c>
+      <c r="R13">
+        <v>2.712770662524</v>
+      </c>
+      <c r="S13">
+        <v>0.00253728766671682</v>
+      </c>
+      <c r="T13">
+        <v>0.002537287666716821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.03081333333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.09243999999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.005548124246053189</v>
-      </c>
-      <c r="J13">
-        <v>0.005548124246053188</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>45.939923</v>
-      </c>
-      <c r="N13">
-        <v>137.819769</v>
-      </c>
-      <c r="O13">
-        <v>0.935249263856416</v>
-      </c>
-      <c r="P13">
-        <v>0.935249263856416</v>
-      </c>
-      <c r="Q13">
-        <v>1.415562160706667</v>
-      </c>
-      <c r="R13">
-        <v>12.74005944636</v>
-      </c>
-      <c r="S13">
-        <v>0.005188879116905178</v>
-      </c>
-      <c r="T13">
-        <v>0.005188879116905178</v>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1070173333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.321052</v>
+      </c>
+      <c r="I14">
+        <v>0.02286968159446954</v>
+      </c>
+      <c r="J14">
+        <v>0.02286968159446954</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.353079</v>
+      </c>
+      <c r="N14">
+        <v>1.059237</v>
+      </c>
+      <c r="O14">
+        <v>0.01390801122570493</v>
+      </c>
+      <c r="P14">
+        <v>0.01390801122570493</v>
+      </c>
+      <c r="Q14">
+        <v>0.037785573036</v>
+      </c>
+      <c r="R14">
+        <v>0.340070157324</v>
+      </c>
+      <c r="S14">
+        <v>0.0003180717883441797</v>
+      </c>
+      <c r="T14">
+        <v>0.0003180717883441798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1070173333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.321052</v>
+      </c>
+      <c r="I15">
+        <v>0.02286968159446954</v>
+      </c>
+      <c r="J15">
+        <v>0.02286968159446954</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>24.359095</v>
+      </c>
+      <c r="N15">
+        <v>73.077285</v>
+      </c>
+      <c r="O15">
+        <v>0.9595205795530543</v>
+      </c>
+      <c r="P15">
+        <v>0.9595205795530543</v>
+      </c>
+      <c r="Q15">
+        <v>2.606845389313333</v>
+      </c>
+      <c r="R15">
+        <v>23.46160850382</v>
+      </c>
+      <c r="S15">
+        <v>0.02194393013771923</v>
+      </c>
+      <c r="T15">
+        <v>0.02194393013771923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1070173333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.321052</v>
+      </c>
+      <c r="I16">
+        <v>0.02286968159446954</v>
+      </c>
+      <c r="J16">
+        <v>0.02286968159446954</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6745613333333332</v>
+      </c>
+      <c r="N16">
+        <v>2.023684</v>
+      </c>
+      <c r="O16">
+        <v>0.02657140922124081</v>
+      </c>
+      <c r="P16">
+        <v>0.02657140922124081</v>
+      </c>
+      <c r="Q16">
+        <v>0.07218975506311111</v>
+      </c>
+      <c r="R16">
+        <v>0.649707795568</v>
+      </c>
+      <c r="S16">
+        <v>0.0006076796684061291</v>
+      </c>
+      <c r="T16">
+        <v>0.0006076796684061291</v>
       </c>
     </row>
   </sheetData>
